--- a/lista.xlsx
+++ b/lista.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,32 +442,40 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ARENA VIDROS</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'online']</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'online', 'Online- Vendas']</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'online', 'Online -SAC']</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -476,7 +484,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6001</t>
+          <t>['ARENA VIDROS', 'online', 'Online -SAC', 'ANALISA DE ATENDIMENTO']</t>
         </is>
       </c>
     </row>
@@ -486,7 +494,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12001</t>
+          <t>['ARENA VIDROS', 'online', 'Online -SAC', 'ASSISTENTE DE POS VENDA']</t>
         </is>
       </c>
     </row>
@@ -496,7 +504,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12001 - chdvclhb</t>
+          <t>['ARENA VIDROS', 'online', 'Online -SAC', 'ANALISTA DE POS VENDAS']</t>
         </is>
       </c>
     </row>
@@ -506,7 +514,687 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12001 - dsvidnjhve</t>
+          <t>['ARENA VIDROS', 'online', 'online - marketing']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'online', 'online - marketing', 'ANALISTA DE MARKETING JUNIOR']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'online', 'online - marketing', 'AUX. DESIGNER WEB']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'online', 'online - marketing', 'AUX. DE ARTE']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'online', 'online - marketing', 'ESTAGIARIO DESIGNER WEB']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'online', 'online - marketing', 'ESTAGIARIO REDATOR']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'online', 'online - marketing', 'SUPERVISOR DE MARKETING E ANUNCIOS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'online', 'online - marketing', 'ESTAGIO EM REDATOR WEB']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'online', 'online - marketing', 'ANALISTA DE MARKETING']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'online', 'online - marketing', 'ESTAGIARIO REDATOR PUBLICITARIO']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'online', 'Estoque']</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'online', 'Estoque', 'EMBALADOR']</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'CFO']</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'CFO', 'Financeiro']</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'CFO', 'Financeiro', 'ASSISTENTE FINANCEIRO']</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'CFO', 'Compras']</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'CFO', 'Compras', 'COMPRADORA']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'CFO', 'Compras', 'COMPRADOR']</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'CFO', 'Compras', 'ANALISTA DE COMPRAS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'OPERAÇÕES']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'OPERAÇÕES', 'Estoque']</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'OPERAÇÕES', 'Estoque', 'COORDENADOR DE SUPRIMENTOS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'OPERAÇÕES', 'Expedição']</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'OPERAÇÕES', 'Expedição', 'ENCARREGADO DE EXPEDICAO']</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'OPERAÇÕES', 'Expedição', 'AUXILIAR DE EXPEDICAO']</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'OPERAÇÕES', 'Expedição', 'COORDENADOR DE EXPEDICAO']</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'OPERAÇÕES', 'Expedição', 'ESTAGIARIO EM LOGISTICA']</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'OPERAÇÕES', 'Expedição', 'ANALISTA DE EXPEDICAO']</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'Comercial']</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'Comercial', 'Vendas Atacado']</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'Comercial', 'Vendas Atacado', 'VENDEDOR']</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'Comercial', 'Vendas Atacado', 'VENDEDOR']</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'Comercial', 'Vendas Atacado', 'ASSISTENTE DE ATENDIMENTO']</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'Comercial', 'Vendas Atacado', 'VENDEDOR EXTERNO']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'Comercial', 'Vendas Atacado', 'ASSISTENTE COMERCIAL']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'Comercial', 'Vendas Atacado', 'GERENTE COMERCIAL']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'TI Arena Vidros']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>['ARENA VIDROS', 'TI Arena Vidros', 'TI ARENA']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>VOA COBRANÇAS EDUCACIONAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Borrachauto</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>['Borrachauto', 'Operações']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>['Borrachauto', 'Operações', 'expedição']</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>['Borrachauto', 'Operações', 'Estoque']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Lotus Participações</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>['Lotus Participações', 'RH']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>['Lotus Participações', 'RH', 'Departamento pessoal']</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>['Lotus Participações', 'RH', 'Recursos Humanos']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>['Lotus Participações', 'RH', 'Recursos Humanos', 'SUPERVISOR DE RH']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>['Lotus Participações', 'Operacional']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>['Lotus Participações', 'Operacional', 'Operacional']</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>['Lotus Participações', 'Operacional', 'Operacional', 'SOLDADOR']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>['Lotus Participações', 'Operacional', 'Operacional', 'ANALISTA DE OPERACOES']</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>['Lotus Participações', 'Operacional', 'Operacional', 'ESTAGIO EM CONSTRUCAO CIVIL']</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Tech Eleven Tecnologia Ltda</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>['Tech Eleven Tecnologia Ltda', 'TI Tech Eleven']</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>['Tech Eleven Tecnologia Ltda', 'TI Tech Eleven', 'TI TECH ELEVEN']</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>['Tech Eleven Tecnologia Ltda', 'TI Tech Eleven', 'TI TECH ELEVEN', 'ANALISTA DE SISTEMAS E DESENVOLVIMENTO']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>['Tech Eleven Tecnologia Ltda', 'TI Tech Eleven', 'TI TECH ELEVEN', 'HELP DESK']</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>['Tech Eleven Tecnologia Ltda', 'TI Tech Eleven', 'TI TECH ELEVEN', 'ESTAGIARIO HELP DESK']</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>['Tech Eleven Tecnologia Ltda', 'TI Tech Eleven', 'TI TECH ELEVEN', 'DESENVOLVEDOR WEB']</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>['Tech Eleven Tecnologia Ltda', 'TI Tech Eleven', 'TI TECH ELEVEN', 'VENDEDOR DE SERVICOS WEB']</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>['Tech Eleven Tecnologia Ltda', 'TI Tech Eleven', 'TI TECH ELEVEN', 'DESENVOLVEDOR FRONT END REACTJR']</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>['Tech Eleven Tecnologia Ltda', 'TI Tech Eleven', 'TI TECH ELEVEN', 'DESENVOLVEDOR C#']</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Genios Shop</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>['Genios Shop', 'Vidraçaria']</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>['Genios Shop', 'Vidraçaria', 'Vidraçaria']</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>['Genios Shop', 'Vidraçaria', 'Vidraçaria', 'MONTADOR']</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>['Genios Shop', 'Vidraçaria', 'Vidraçaria', 'AJUDANTE DE VIDRACEIRO']</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>['Genios Shop', 'Vidraçaria', 'Vidraçaria', 'AUXILIAR DE VIDRACEIRO']</t>
         </is>
       </c>
     </row>
